--- a/data/trans_orig/P57B3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>70804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56083</v>
+        <v>56697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87279</v>
+        <v>88577</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1422307396701909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1126582959258745</v>
+        <v>0.1138926229604205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1753243705554993</v>
+        <v>0.1779325887041066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -762,19 +762,19 @@
         <v>65544</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53808</v>
+        <v>53515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78104</v>
+        <v>80220</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1051094545893603</v>
+        <v>0.1051094545893604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08628879905823285</v>
+        <v>0.08581902761960035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1252517501825292</v>
+        <v>0.1286448278857417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -783,19 +783,19 @@
         <v>136348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116977</v>
+        <v>117523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159509</v>
+        <v>158769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1215884494444308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1043137418110675</v>
+        <v>0.1048010147567698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1422421554571514</v>
+        <v>0.1415820876827727</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>72435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57151</v>
+        <v>58293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87521</v>
+        <v>89654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1455075199571538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1148040589822605</v>
+        <v>0.1170975290897999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.175810408645218</v>
+        <v>0.1800959093170493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -833,19 +833,19 @@
         <v>97338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81773</v>
+        <v>82048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113351</v>
+        <v>115612</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1560952363796448</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1311347606804343</v>
+        <v>0.1315755515830877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1817743710213948</v>
+        <v>0.1854000158627487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>223</v>
@@ -854,19 +854,19 @@
         <v>169773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148732</v>
+        <v>147250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194253</v>
+        <v>192104</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1513951047954806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.132631253096478</v>
+        <v>0.1313097796817931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1732246408062098</v>
+        <v>0.1713086343568894</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>151640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127982</v>
+        <v>129913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175406</v>
+        <v>175351</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3046135827365759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2570888127771127</v>
+        <v>0.2609679339732541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3523541423914238</v>
+        <v>0.3522441493161356</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>302</v>
@@ -904,19 +904,19 @@
         <v>212799</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191673</v>
+        <v>190702</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>232184</v>
+        <v>233462</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3412537214859844</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3073751093348945</v>
+        <v>0.3058177507550128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3723399770413911</v>
+        <v>0.3743895105647754</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>431</v>
@@ -925,19 +925,19 @@
         <v>364439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>334393</v>
+        <v>335229</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>395190</v>
+        <v>397516</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3249883185877327</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2981949144437699</v>
+        <v>0.2989398535344958</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3524106320552118</v>
+        <v>0.3544845434360425</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>202932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175709</v>
+        <v>180375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228445</v>
+        <v>226737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4076481576360795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3529619350338932</v>
+        <v>0.3623364590674332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4588977571071253</v>
+        <v>0.4554666517087593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>315</v>
@@ -975,19 +975,19 @@
         <v>247899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>226840</v>
+        <v>226542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271703</v>
+        <v>273223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3975415875450103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3637700485408849</v>
+        <v>0.3632920654296206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4357142821881523</v>
+        <v>0.4381519168631353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -996,19 +996,19 @@
         <v>450831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>419565</v>
+        <v>418948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>486584</v>
+        <v>486991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4020281271723559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3741461558006745</v>
+        <v>0.3735963374390194</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4339105330624535</v>
+        <v>0.4342735524970563</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>36730</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26882</v>
+        <v>26026</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49972</v>
+        <v>50270</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03825543441585656</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02799782683937847</v>
+        <v>0.02710604614936365</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05204722858155603</v>
+        <v>0.05235707899464985</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -1121,19 +1121,19 @@
         <v>46022</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37137</v>
+        <v>36137</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>57310</v>
+        <v>57756</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04131255792134944</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03333727996366919</v>
+        <v>0.0324396393757194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05144526264335255</v>
+        <v>0.05184637464114788</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -1142,19 +1142,19 @@
         <v>82752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>68032</v>
+        <v>69772</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99174</v>
+        <v>98970</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0398973815076217</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03280028217389277</v>
+        <v>0.03363914400055479</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04781502666575535</v>
+        <v>0.04771626471568736</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>95634</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79159</v>
+        <v>77079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115115</v>
+        <v>115402</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09960459609863663</v>
+        <v>0.09960459609863664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08244508605620689</v>
+        <v>0.08027866412981947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1198940920439164</v>
+        <v>0.1201933652018512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>226</v>
@@ -1192,19 +1192,19 @@
         <v>140925</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123228</v>
+        <v>124387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161151</v>
+        <v>160323</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1265045065113032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1106180730873689</v>
+        <v>0.1116589032125368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.144660930840294</v>
+        <v>0.1439172770411378</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>329</v>
@@ -1213,19 +1213,19 @@
         <v>236559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>213718</v>
+        <v>212120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266911</v>
+        <v>264717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1140522393133976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1030399939976456</v>
+        <v>0.1022697022924604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1286859674531896</v>
+        <v>0.1276282617830712</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>412502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>378395</v>
+        <v>379483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446939</v>
+        <v>448393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4296279647935858</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3941050505885483</v>
+        <v>0.3952378836367303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4654948055888359</v>
+        <v>0.4670092100861898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>598</v>
@@ -1263,19 +1263,19 @@
         <v>426759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>397588</v>
+        <v>396736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456708</v>
+        <v>455408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3830898225725466</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3569041650313615</v>
+        <v>0.3561391426203607</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4099748577203227</v>
+        <v>0.4088071773273969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>970</v>
@@ -1284,19 +1284,19 @@
         <v>839260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>795117</v>
+        <v>794993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>883625</v>
+        <v>883392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4046328453165047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3833497921625707</v>
+        <v>0.3832902495094934</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4260224762367433</v>
+        <v>0.4259102682671262</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>415271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>381997</v>
+        <v>380401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>448913</v>
+        <v>450272</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4325120046919211</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3978568703864162</v>
+        <v>0.3961949007635235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4675504937451547</v>
+        <v>0.4689663044642047</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>700</v>
@@ -1334,19 +1334,19 @@
         <v>500286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>473798</v>
+        <v>471200</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>530244</v>
+        <v>529724</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4490931129948008</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4253157941107999</v>
+        <v>0.4229837680605137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4759860898118298</v>
+        <v>0.4755190178224515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1091</v>
@@ -1355,19 +1355,19 @@
         <v>915556</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>871644</v>
+        <v>872236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>961604</v>
+        <v>959187</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4414175338624761</v>
+        <v>0.441417533862476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4202459621703713</v>
+        <v>0.4205313406541124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4636186662668861</v>
+        <v>0.4624532746809724</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>20197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13619</v>
+        <v>13251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30498</v>
+        <v>29663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01929999374778517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01301387918423952</v>
+        <v>0.01266228030235894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02914357402561126</v>
+        <v>0.02834547306079084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -1480,19 +1480,19 @@
         <v>27288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20127</v>
+        <v>18991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37250</v>
+        <v>37284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02611440487608263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01926155178501018</v>
+        <v>0.01817468424041138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03564886980660736</v>
+        <v>0.03568050336906357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1501,19 +1501,19 @@
         <v>47485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37162</v>
+        <v>37248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60412</v>
+        <v>62580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02270467061884188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01776880834743034</v>
+        <v>0.01780988576051534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02888591665270616</v>
+        <v>0.02992266700806658</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>60126</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46952</v>
+        <v>47831</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>75859</v>
+        <v>75929</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05745542057268932</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04486655994631109</v>
+        <v>0.04570686390676383</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07248995443983203</v>
+        <v>0.07255679761303419</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>105</v>
@@ -1551,19 +1551,19 @@
         <v>67458</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53651</v>
+        <v>54930</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>81479</v>
+        <v>82359</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.06455761947983123</v>
+        <v>0.06455761947983124</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05134423713628962</v>
+        <v>0.05256782408953391</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07797564895827491</v>
+        <v>0.07881812271793875</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>176</v>
@@ -1572,19 +1572,19 @@
         <v>127584</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109194</v>
+        <v>109927</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>149034</v>
+        <v>146934</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.06100388454081971</v>
+        <v>0.06100388454081972</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05221062086944168</v>
+        <v>0.05256113461026702</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07126034920157437</v>
+        <v>0.07025587542429015</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>319828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>285601</v>
+        <v>291383</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>348702</v>
+        <v>353345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.30562300996574</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.27291654859572</v>
+        <v>0.2784414228667176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3332141010501924</v>
+        <v>0.3376509594235994</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>544</v>
@@ -1622,19 +1622,19 @@
         <v>362872</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>336624</v>
+        <v>334510</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>391062</v>
+        <v>393360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3472704339402463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3221507944149485</v>
+        <v>0.3201272775619951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3742480748970072</v>
+        <v>0.3764474533816248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>865</v>
@@ -1643,19 +1643,19 @@
         <v>682700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>641160</v>
+        <v>641227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>725245</v>
+        <v>723105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3264312674182839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3065688590754592</v>
+        <v>0.3066007559682602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3467739222734073</v>
+        <v>0.3457508725666318</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>646328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>613693</v>
+        <v>610588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>678915</v>
+        <v>680163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6176215757137855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5864357968669032</v>
+        <v>0.5834691177947844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6487614338091535</v>
+        <v>0.6499533440609228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>822</v>
@@ -1693,19 +1693,19 @@
         <v>587309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>558571</v>
+        <v>556482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>616359</v>
+        <v>614163</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5620575417038399</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5345551945644286</v>
+        <v>0.5325561071995593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5898580825111918</v>
+        <v>0.5877563886685057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1432</v>
@@ -1714,19 +1714,19 @@
         <v>1233637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1190329</v>
+        <v>1191928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1274653</v>
+        <v>1278925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5898601774220544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5691523869826379</v>
+        <v>0.5699172629842748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6094716649307356</v>
+        <v>0.6115142209371229</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>17947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10516</v>
+        <v>11072</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27790</v>
+        <v>28547</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01838961531259637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01077497491350566</v>
+        <v>0.01134460642011759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02847570294228678</v>
+        <v>0.02925130710113428</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1839,19 +1839,19 @@
         <v>21697</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14999</v>
+        <v>14923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33491</v>
+        <v>32002</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02390852790239013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01652745275071741</v>
+        <v>0.01644449102510412</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03690397079208229</v>
+        <v>0.0352632373518967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1860,19 +1860,19 @@
         <v>39644</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29463</v>
+        <v>29735</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54673</v>
+        <v>53835</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02104882180079906</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01564307432541557</v>
+        <v>0.01578752663778714</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0290285752863448</v>
+        <v>0.02858363851134091</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>38724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27553</v>
+        <v>27607</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55535</v>
+        <v>54410</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03967945353521356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02823304529096068</v>
+        <v>0.02828776777755004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05690519551682176</v>
+        <v>0.05575171103845129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -1910,19 +1910,19 @@
         <v>36676</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27356</v>
+        <v>26780</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49489</v>
+        <v>49176</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04041360389288602</v>
+        <v>0.04041360389288604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03014426329225038</v>
+        <v>0.02950911107755164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05453327115793884</v>
+        <v>0.05418788818614702</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -1931,19 +1931,19 @@
         <v>75400</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60520</v>
+        <v>60429</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94982</v>
+        <v>95192</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04003319303781944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03213256906507611</v>
+        <v>0.03208438625632254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05042998919713726</v>
+        <v>0.05054166980237097</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>250948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>224289</v>
+        <v>223777</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>285082</v>
+        <v>280894</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2571371245935197</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.229821213423145</v>
+        <v>0.2292964588407328</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2921130227686709</v>
+        <v>0.287822284984272</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>406</v>
@@ -1981,19 +1981,19 @@
         <v>244936</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>222382</v>
+        <v>221099</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>267532</v>
+        <v>268931</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2699004300360092</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.245048055521675</v>
+        <v>0.2436342960109207</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2947992481831996</v>
+        <v>0.2963408944206865</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>671</v>
@@ -2002,19 +2002,19 @@
         <v>495884</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>459736</v>
+        <v>458857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>534206</v>
+        <v>532865</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2632869347402408</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2440947684000791</v>
+        <v>0.243627897222203</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2836341161053487</v>
+        <v>0.2829220962251125</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>668310</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>632582</v>
+        <v>634549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>697183</v>
+        <v>696614</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6847938065586703</v>
+        <v>0.6847938065586705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6481849007664781</v>
+        <v>0.6502004726239575</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7143785409278269</v>
+        <v>0.7137953509114685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>831</v>
@@ -2052,19 +2052,19 @@
         <v>604196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>579423</v>
+        <v>579208</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>628707</v>
+        <v>630585</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6657774381687147</v>
+        <v>0.6657774381687146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6384796378820942</v>
+        <v>0.6382421325788451</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6927863127401819</v>
+        <v>0.6948551344180166</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1457</v>
@@ -2073,19 +2073,19 @@
         <v>1272506</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1229388</v>
+        <v>1232392</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1310768</v>
+        <v>1310757</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6756310504211407</v>
+        <v>0.6756310504211406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.652737369188238</v>
+        <v>0.6543323321250898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6959458656596634</v>
+        <v>0.6959400968598753</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>145679</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>123789</v>
+        <v>121512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168938</v>
+        <v>168524</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0418573725424739</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03556788406341582</v>
+        <v>0.03491377632095266</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04854041097551709</v>
+        <v>0.0484214903171284</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>253</v>
@@ -2198,19 +2198,19 @@
         <v>160551</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>142967</v>
+        <v>140774</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>182950</v>
+        <v>181295</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04350965200319751</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03874450953788309</v>
+        <v>0.03815016387105698</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04957977223410955</v>
+        <v>0.04913149560520521</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>418</v>
@@ -2219,19 +2219,19 @@
         <v>306229</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>277163</v>
+        <v>276942</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>339999</v>
+        <v>338129</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04270766685537017</v>
+        <v>0.04270766685537018</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03865399006707389</v>
+        <v>0.03862319580395468</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04741721783759444</v>
+        <v>0.04715648732587862</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>266920</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>237295</v>
+        <v>236092</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>299810</v>
+        <v>300294</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07669317836858716</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06818125591764969</v>
+        <v>0.06783544894925064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08614359019597437</v>
+        <v>0.08628249740464504</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>526</v>
@@ -2269,19 +2269,19 @@
         <v>342396</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>313543</v>
+        <v>312896</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>373541</v>
+        <v>372561</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09279025484469268</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08497094867511626</v>
+        <v>0.08479562690838967</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1012305858620128</v>
+        <v>0.1009649379158706</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>817</v>
@@ -2290,19 +2290,19 @@
         <v>609316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>568138</v>
+        <v>566935</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>655046</v>
+        <v>652787</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08497703888204695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07923417486965259</v>
+        <v>0.07906641293297129</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09135461958774127</v>
+        <v>0.09103962347830401</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1134918</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1079898</v>
+        <v>1069313</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1197066</v>
+        <v>1198022</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3260922946719941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3102836514550107</v>
+        <v>0.3072424367105481</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3439492519737992</v>
+        <v>0.3442239618339347</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1850</v>
@@ -2340,19 +2340,19 @@
         <v>1247366</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1196664</v>
+        <v>1192982</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1299030</v>
+        <v>1295372</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3380392542620354</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3242990391766834</v>
+        <v>0.3233009770234617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3520404232736815</v>
+        <v>0.3510489121492475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2937</v>
@@ -2361,19 +2361,19 @@
         <v>2382283</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2311879</v>
+        <v>2302605</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2466575</v>
+        <v>2462679</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3322404264119874</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3224216602916775</v>
+        <v>0.3211282606081702</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.343995909482385</v>
+        <v>0.3434526861419699</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1932841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1875504</v>
+        <v>1866783</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1992581</v>
+        <v>2005071</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5553571544169449</v>
+        <v>0.5553571544169448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.538882520909601</v>
+        <v>0.5363768192934848</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5725220387105427</v>
+        <v>0.5761107397441523</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2668</v>
@@ -2411,19 +2411,19 @@
         <v>1939690</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1881528</v>
+        <v>1881831</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1994056</v>
+        <v>1994544</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5256608388900744</v>
+        <v>0.5256608388900743</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5098986667973873</v>
+        <v>0.5099808765808899</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5403941323522714</v>
+        <v>0.5405262891057599</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4465</v>
@@ -2432,19 +2432,19 @@
         <v>3872531</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3788001</v>
+        <v>3777627</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3953669</v>
+        <v>3952839</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5400748678505954</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5282860935044574</v>
+        <v>0.5268393058214322</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5513905260924177</v>
+        <v>0.5512747758015197</v>
       </c>
     </row>
     <row r="28">
